--- a/data/output/FV2504_FV2410/UTILMD/44019.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44019.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="332">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="332">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1115,6 +1115,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U153" totalsRowShown="0">
+  <autoFilter ref="A1:U153"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,7 +1434,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8890,5 +8923,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44019.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44019.xlsx
@@ -1990,7 +1990,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4504,7 +4504,7 @@
         <v>315</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4724,7 +4724,7 @@
         <v>316</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4944,7 +4944,7 @@
         <v>317</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5164,7 +5164,7 @@
         <v>318</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5380,7 +5380,7 @@
         <v>319</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5784,7 +5784,7 @@
         <v>321</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5930,7 +5930,7 @@
         <v>322</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6192,7 +6192,7 @@
         <v>324</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6454,7 +6454,7 @@
         <v>326</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6654,7 +6654,7 @@
         <v>315</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6854,7 +6854,7 @@
         <v>315</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7054,7 +7054,7 @@
         <v>327</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7366,7 +7366,7 @@
         <v>315</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7516,7 +7516,7 @@
         <v>315</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7952,7 +7952,7 @@
         <v>329</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8984,7 +8984,7 @@
         <v>331</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9296,7 +9296,7 @@
         <v>315</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N151" s="2"/>
